--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="298">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
@@ -685,26 +688,7 @@
     <t>Goals can be established prior to there being an intention to start pursuing them; e.g. Goals for post-surgical recovery established prior to surgery.</t>
   </si>
   <si>
-    <t>Codes describing events that can trigger the initiation of a goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Goal.start[x]:startDate</t>
-  </si>
-  <si>
-    <t>startDate</t>
   </si>
   <si>
     <t>Goal.target</t>
@@ -1279,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1312,7 +1296,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2953,11 +2937,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3001,10 +2987,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3030,16 +3016,16 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3067,10 +3053,10 @@
         <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3088,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3106,18 +3092,18 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3143,16 +3129,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3177,13 +3163,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3201,7 +3187,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3216,21 +3202,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3253,17 +3239,17 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3312,7 +3298,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3327,21 +3313,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3364,17 +3350,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3399,29 +3385,31 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3442,28 +3430,26 @@
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>87</v>
@@ -3472,20 +3458,22 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3534,19 +3522,19 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -3555,15 +3543,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3574,10 +3562,10 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -3586,20 +3574,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3647,25 +3631,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3673,21 +3657,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3699,15 +3683,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3756,25 +3742,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3782,14 +3768,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3802,16 +3788,16 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>237</v>
@@ -3819,7 +3805,9 @@
       <c r="N23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3885,7 +3873,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3900,39 +3888,35 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3956,13 +3940,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -3980,25 +3964,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4032,15 +4016,17 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4068,10 +4054,10 @@
         <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4098,7 +4084,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4115,10 +4101,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4132,7 +4118,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4141,18 +4127,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4176,10 +4162,10 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4200,7 +4186,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4209,7 +4195,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4221,15 +4207,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4243,7 +4229,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4252,7 +4238,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>257</v>
@@ -4260,10 +4246,10 @@
       <c r="M27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>259</v>
       </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4311,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4360,10 +4346,10 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>262</v>
@@ -4443,15 +4429,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4465,16 +4451,16 @@
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>267</v>
@@ -4533,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4554,15 +4540,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4573,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>87</v>
@@ -4582,21 +4568,21 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4644,13 +4630,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4662,18 +4648,18 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4687,7 +4673,7 @@
         <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
@@ -4696,17 +4682,19 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4755,7 +4743,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4770,21 +4758,21 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4807,19 +4795,19 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4844,13 +4832,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4868,7 +4856,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4883,10 +4871,10 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4894,10 +4882,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4920,19 +4908,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4957,13 +4945,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4981,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5005,121 +4993,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM34">
+  <autoFilter ref="A1:AM33">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5129,7 +5004,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -582,7 +582,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -865,7 +865,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,13 +576,25 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcome category</t>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+  </si>
+  <si>
+    <t>Goal.category:domainCategory</t>
+  </si>
+  <si>
+    <t>domainCategory</t>
+  </si>
+  <si>
+    <t>Person-Centered Outcome domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -865,11 +877,11 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(Condition|Observation|RiskAssessment)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Condition</t>
+    <t>Issues addressed by this goal</t>
   </si>
   <si>
     <t>The identified conditions and other health record elements that are intended to be addressed by the goal.</t>
@@ -878,10 +890,30 @@
     <t>Allows specific goals to explicitly linked to the concerns they're dealing with - makes the goal more understandable.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=SUBJ].target[classCode=CONC]</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Goal.addresses:SupportedAddresses</t>
+  </si>
+  <si>
+    <t>SupportedAddresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+</t>
+  </si>
+  <si>
+    <t>What Matters Assessment or Statement</t>
+  </si>
+  <si>
+    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>
@@ -1263,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1272,9 +1304,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1297,7 +1329,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2776,7 +2808,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2887,10 +2919,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>87</v>
@@ -2939,11 +2971,9 @@
       <c r="X15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2987,12 +3017,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3001,10 +3033,10 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3019,13 +3051,11 @@
         <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3053,10 +3083,10 @@
         <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3074,13 +3104,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3092,18 +3122,18 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3111,13 +3141,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3129,16 +3159,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3163,13 +3193,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3187,10 +3217,10 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3202,21 +3232,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3239,17 +3269,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3274,13 +3306,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3298,7 +3330,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3313,21 +3345,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3350,17 +3382,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3409,10 +3441,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3424,21 +3456,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3446,10 +3478,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>87</v>
@@ -3458,22 +3490,20 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3522,19 +3552,19 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -3543,15 +3573,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3562,10 +3592,10 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -3574,16 +3604,20 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3631,25 +3665,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3657,21 +3691,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3683,17 +3717,15 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3748,19 +3780,19 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3768,14 +3800,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3788,26 +3820,24 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3855,7 +3885,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3873,7 +3903,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3881,33 +3911,33 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>240</v>
@@ -3915,8 +3945,12 @@
       <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3940,49 +3974,49 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3990,10 +4024,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4016,17 +4050,15 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4054,10 +4086,10 @@
         <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4075,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4084,7 +4116,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4101,10 +4133,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4118,7 +4150,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4127,18 +4159,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4162,10 +4194,10 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4186,7 +4218,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4195,7 +4227,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4207,15 +4239,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4229,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4238,18 +4270,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4297,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4318,15 +4350,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4346,19 +4378,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4408,7 +4440,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4429,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4451,25 +4483,25 @@
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4540,15 +4572,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4559,7 +4591,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>87</v>
@@ -4568,21 +4600,21 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4630,13 +4662,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4648,18 +4680,18 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4682,19 +4714,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4731,19 +4761,17 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4758,23 +4786,25 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4786,7 +4816,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -4795,19 +4825,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4832,13 +4860,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4856,7 +4884,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4874,18 +4902,18 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4908,19 +4936,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4969,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4984,17 +5012,243 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
       </c>
     </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM33">
+  <autoFilter ref="A1:AM35">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5004,7 +5258,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,7 +576,7 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered category</t>
+    <t>Person-Centered Goal category</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
@@ -2808,13 +2808,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,28 +570,30 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
+    <t>Goal.category:pco-goal</t>
+  </si>
+  <si>
+    <t>pco-goal</t>
   </si>
   <si>
     <t>Person-Centered Goal category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
-  </si>
-  <si>
-    <t>Goal.category:domainCategory</t>
-  </si>
-  <si>
-    <t>domainCategory</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
+    &lt;code value="person-centered-goal"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Goal.category:goal-domain</t>
+  </si>
+  <si>
+    <t>goal-domain</t>
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -1328,7 +1330,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2808,7 +2810,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2919,7 +2921,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -2954,7 +2956,7 @@
         <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>76</v>
@@ -2969,11 +2971,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3082,11 +3086,9 @@
       <c r="X16" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3130,10 +3132,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3159,16 +3161,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3196,11 +3198,11 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3235,18 +3237,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3272,16 +3274,16 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3306,14 +3308,14 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3345,21 +3347,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3382,17 +3384,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3441,7 +3443,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3456,21 +3458,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3493,17 +3495,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3552,7 +3554,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3573,15 +3575,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3604,19 +3606,19 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3665,7 +3667,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3674,10 +3676,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3691,10 +3693,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3717,13 +3719,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3774,7 +3776,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3792,7 +3794,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3800,10 +3802,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3832,7 +3834,7 @@
         <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
@@ -3885,7 +3887,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3903,7 +3905,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3911,14 +3913,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3940,10 +3942,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -3998,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4024,10 +4026,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4053,10 +4055,10 @@
         <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4086,11 +4088,11 @@
         <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4116,7 +4118,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4133,10 +4135,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4159,16 +4161,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4197,7 +4199,7 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4227,7 +4229,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4244,10 +4246,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4270,17 +4272,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4329,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4350,15 +4352,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4381,16 +4383,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4440,7 +4442,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4461,15 +4463,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4492,16 +4494,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4551,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4577,10 +4579,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4603,16 +4605,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4662,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4683,15 +4685,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4714,17 +4716,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4761,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -4771,7 +4773,7 @@
         <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4789,21 +4791,21 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
@@ -4825,17 +4827,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4886,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4902,18 +4904,18 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4936,19 +4938,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4997,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5012,10 +5014,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5023,10 +5025,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5052,16 +5054,16 @@
         <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5089,11 +5091,11 @@
         <v>172</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5136,10 +5138,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5162,19 +5164,19 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5223,7 +5225,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -560,7 +560,7 @@
     <t>http://hl7.org/fhir/ValueSet/goal-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -570,21 +570,19 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-goal</t>
-  </si>
-  <si>
-    <t>pco-goal</t>
-  </si>
-  <si>
-    <t>Person-Centered Goal category</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
-    &lt;code value="person-centered-goal"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Goal.category:pco-category</t>
+  </si>
+  <si>
+    <t>pco-category</t>
+  </si>
+  <si>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -641,9 +639,6 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -2810,7 +2805,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2921,7 +2916,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -2956,28 +2951,26 @@
         <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3021,13 +3014,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3052,7 +3045,7 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>170</v>
@@ -3088,7 +3081,7 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3132,10 +3125,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3161,16 +3154,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3198,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3219,7 +3212,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3237,18 +3230,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3274,16 +3267,16 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3308,7 +3301,7 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>201</v>
@@ -3332,7 +3325,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,9 +579,6 @@
     <t>Person-Centered category</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -1325,7 +1328,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2966,11 +2969,11 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3014,13 +3017,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3045,7 +3048,7 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>170</v>
@@ -3077,9 +3080,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z16" t="s" s="2">
         <v>186</v>
       </c>
@@ -3301,13 +3306,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3340,21 +3345,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3377,17 +3382,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3436,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3451,21 +3456,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3488,17 +3493,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3547,7 +3552,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3568,15 +3573,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3599,19 +3604,19 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3660,7 +3665,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3669,10 +3674,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3686,10 +3691,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3712,13 +3717,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3769,7 +3774,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3792,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3795,10 +3800,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3827,7 +3832,7 @@
         <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
@@ -3880,7 +3885,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3898,7 +3903,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3906,14 +3911,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3935,10 +3940,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -3993,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4019,10 +4024,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4048,10 +4053,10 @@
         <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4081,10 +4086,10 @@
         <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4102,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4111,7 +4116,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4128,10 +4133,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4154,16 +4159,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4192,7 +4197,7 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4213,7 +4218,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4222,7 +4227,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4239,10 +4244,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4265,17 +4270,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4324,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4345,15 +4350,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4376,16 +4381,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4435,7 +4440,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4456,15 +4461,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4487,16 +4492,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4546,7 +4551,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4572,10 +4577,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4598,16 +4603,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4657,7 +4662,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4678,15 +4683,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4709,17 +4714,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4756,7 +4761,7 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -4766,7 +4771,7 @@
         <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4784,21 +4789,21 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
@@ -4820,17 +4825,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4879,7 +4884,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4897,18 +4902,18 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4931,19 +4936,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4992,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5007,10 +5012,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5018,10 +5023,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5047,16 +5052,16 @@
         <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5084,10 +5089,10 @@
         <v>172</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5105,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5131,10 +5136,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5157,19 +5162,19 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5218,7 +5223,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-category</t>
-  </si>
-  <si>
-    <t>pco-category</t>
-  </si>
-  <si>
-    <t>Person-Centered category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+    <t>Goal.category:what-matters</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters observation category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -588,13 +588,13 @@
     <t>goal-domain</t>
   </si>
   <si>
-    <t>Person-Centered Outcome domain category</t>
+    <t>Person-Centered Outcome goal domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-goal-domains-example-vs</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -906,11 +906,11 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Statement</t>
+    <t>What Matters Assessment or Priority</t>
   </si>
   <si>
     <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
@@ -1329,7 +1329,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Person-centered goal focused on what matters most to an individual. A Person-centered goal SHALL include either a Person-Centered Outcome category, or address a What Matters assessment.</t>
+    <t>Person-centered goal focused on an individual's well-being. A Person-centered goal SHALL include either a Well-Being category, or address a Well-Being assessment.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:what-matters</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters observation category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
+    <t>Goal.category:well-being</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -906,14 +906,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
+    <t>Well-Being Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,7 +579,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Person-centered goal focused on an individual's well-being. A Person-centered goal SHALL include either a Well-Being category, or address a Well-Being assessment.</t>
+    <t>Person-centered goal focused on an individual's well-being. A Person-centered goal SHALL include either a PCO category, or address a What Matters assessment.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:well-being</t>
-  </si>
-  <si>
-    <t>well-being</t>
-  </si>
-  <si>
-    <t>Well-Being resource category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
+    <t>Goal.category:pco</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Person-Centered resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -906,14 +906,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>Well-Being Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
+    <t>What Matters Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses What Matters observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-profile.xlsx
+++ b/StructureDefinition-pco-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -906,7 +906,7 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment)
 </t>
   </si>
   <si>
